--- a/ParalelProgramming/FlorinAsavei/Lab4/Results.xlsx
+++ b/ParalelProgramming/FlorinAsavei/Lab4/Results.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +406,7 @@
         <v>1.6</v>
       </c>
       <c r="G7">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/ParalelProgramming/FlorinAsavei/Lab4/Results.xlsx
+++ b/ParalelProgramming/FlorinAsavei/Lab4/Results.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="De la Alex" sheetId="1" r:id="rId1"/>
+    <sheet name="De la Florin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Produs Matricial in paralel</t>
   </si>
@@ -30,13 +31,22 @@
     <t>proc</t>
   </si>
   <si>
-    <t>prod1</t>
+    <t>Produs</t>
+  </si>
+  <si>
+    <t>Pseudo produs</t>
+  </si>
+  <si>
+    <t>Ideal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +94,1038 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'De la Alex'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'De la Alex'!$C$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-166F-4E89-9097-8815DE898876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'De la Alex'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Produs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'De la Alex'!$C$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6097560975609757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1249999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7142857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-166F-4E89-9097-8815DE898876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'De la Alex'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pseudo produs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'De la Alex'!$C$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1428571428571432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-166F-4E89-9097-8815DE898876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="195101263"/>
+        <c:axId val="195102095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="195101263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195102095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="195102095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195101263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D7">
         <v>4.0999999999999996</v>
@@ -407,9 +1450,114 @@
       </c>
       <c r="G7">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>1.3</v>
+      </c>
+      <c r="F8">
+        <v>0.9</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <f>C7/D7</f>
+        <v>1.6097560975609757</v>
+      </c>
+      <c r="E13" s="1">
+        <f>C7/E7</f>
+        <v>2.75</v>
+      </c>
+      <c r="F13" s="1">
+        <f>C7/F7</f>
+        <v>4.1249999999999991</v>
+      </c>
+      <c r="G13" s="1">
+        <f>C7/G7</f>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C8/D8</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <f>C8/E8</f>
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="F14" s="1">
+        <f>C8/F8</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="G14" s="1">
+        <f>C8/G8</f>
+        <v>7.1428571428571432</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>